--- a/downloadFiles/attendeesReport.xlsx
+++ b/downloadFiles/attendeesReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -43,34 +43,52 @@
     <t>Net Paid Amount</t>
   </si>
   <si>
-    <t>Date Time</t>
+    <t>Start Date Time</t>
+  </si>
+  <si>
+    <t>End Date Time</t>
   </si>
   <si>
     <t>Invoice URL</t>
   </si>
   <si>
-    <t>Total Seat Booked</t>
-  </si>
-  <si>
-    <t>Seat Details</t>
-  </si>
-  <si>
     <t>00000011</t>
   </si>
   <si>
     <t>raj</t>
   </si>
   <si>
+    <t>Christmas Party on Gardan Restaurants</t>
+  </si>
+  <si>
+    <t>pay_L1ydL3YAkvdVlb</t>
+  </si>
+  <si>
     <t>https://eventopackage.s3.ap-south-1.amazonaws.com/undefined</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>00000019</t>
   </si>
   <si>
     <t>Raz User</t>
+  </si>
+  <si>
+    <t>pay_KvFUOddNywCAc5</t>
+  </si>
+  <si>
+    <t>00000036</t>
+  </si>
+  <si>
+    <t>pratik</t>
+  </si>
+  <si>
+    <t>pay_L6NzYh3JImkl4e</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>https://eventopackage.s3.ap-south-1.amazonaws.com/63ca4049c1ed95ab1f63bbc5/invoice/DOC/63ca4049c1ed95ab1f63bbc5/INV00000036.pdf</t>
   </si>
 </sst>
 </file>
@@ -451,20 +469,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:M4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="4" width="50" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="50" style="1" customWidth="1"/>
-    <col min="12" max="12" width="80" customWidth="1"/>
-    <col min="13" max="13" width="30" customWidth="1"/>
-    <col min="14" max="14" width="100" customWidth="1"/>
+    <col min="11" max="12" width="50" style="1" customWidth="1"/>
+    <col min="13" max="13" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,54 +514,101 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>45540</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44936.49097222222</v>
+      </c>
+      <c r="L2" s="1">
+        <v>44938.99097222222</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1">
-        <v>NaN</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>45540</v>
+      </c>
       <c r="K3" s="1">
-        <v>NaN</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3">
+        <v>45292.14583333333</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45292.27083333333</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>204800</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="N3" t="s">
-        <v>17</v>
+      <c r="H4">
+        <v>163840</v>
+      </c>
+      <c r="I4">
+        <v>40960</v>
+      </c>
+      <c r="K4" s="1">
+        <v>44948.375</v>
+      </c>
+      <c r="L4" s="1">
+        <v>44951.875</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
